--- a/document/クラス定義書/userinfodao.xlsx
+++ b/document/クラス定義書/userinfodao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\クラス定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/クラス定義書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FBAF72-464E-4116-A6EC-F0D3928E205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{85FBAF72-464E-4116-A6EC-F0D3928E205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C425DFE4-2B99-4C02-BCDE-8DA3BA732C50}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E75C29B-099B-4A83-A1C9-7F73C8953318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4E75C29B-099B-4A83-A1C9-7F73C8953318}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -722,6 +722,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -742,18 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A819C65-A140-45F9-BFE9-E7D801E2A3A6}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H3"/>
+    <sheetView topLeftCell="A13" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1092,104 +1092,104 @@
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="2:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="27"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="15">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="27"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="16">
         <v>2</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="28"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="18">
         <v>3</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="27"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="15">
         <v>1</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="27"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="16">
         <v>2</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="27"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="16">
         <v>3</v>
       </c>
@@ -1335,14 +1335,16 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="27"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="16">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F18" s="11" t="s">
         <v>37</v>
       </c>
@@ -1352,14 +1354,16 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="29"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="17">
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACBC804-93A3-479F-9FE2-589C0200531F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
